--- a/target/classes/com/qa/codeElan/TestData/CodeElan_TestDataSheet.xlsx
+++ b/target/classes/com/qa/codeElan/TestData/CodeElan_TestDataSheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="315">
   <si>
     <t>chrome</t>
   </si>
@@ -975,6 +975,12 @@
   </si>
   <si>
     <t>ProjectName</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1044,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1079,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1163,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,6 +1263,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1518,7 +1538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1526,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1590,6 +1610,14 @@
       </c>
       <c r="B7" s="40" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A8" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
